--- a/calcs/VotesAndRewards.xlsx
+++ b/calcs/VotesAndRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B32CE3-AB0B-3046-A2A2-F33C599964C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28453D-9ADB-F547-9855-93893BF1D0DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="960" windowWidth="27300" windowHeight="16540" xr2:uid="{7B98E81D-F3CD-D249-8383-AB3D672FCBF1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>User1</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>29 days</t>
+  </si>
+  <si>
+    <t>360 days</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>0 day</t>
+  </si>
+  <si>
+    <t>1/2 day</t>
   </si>
 </sst>
 </file>
@@ -131,10 +143,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss\ dd/mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss\ dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -227,18 +239,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -254,7 +266,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -575,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A30253-9537-F644-AA53-33F854E839F9}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +612,7 @@
       </c>
       <c r="B1" s="3">
         <f ca="1">NOW()</f>
-        <v>44136.405694675923</v>
+        <v>44136.425628703706</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -609,7 +621,7 @@
       </c>
       <c r="B2" s="4">
         <f ca="1">ROUND((B1-DATE(1970,1,1))*86400,0)</f>
-        <v>1604223852</v>
+        <v>1604225574</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -684,15 +696,15 @@
       </c>
       <c r="G7" s="4">
         <f ca="1">NOW+D7</f>
-        <v>1604310252</v>
+        <v>1604311974</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">G7/86400+DATE(1970,1,1)</f>
-        <v>44137.405694444446</v>
+        <v>44137.425625000003</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">G7*B7</f>
-        <v>1604310252000</v>
+        <v>1604311974000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -720,15 +732,15 @@
       </c>
       <c r="G8" s="4">
         <f ca="1">NOW+D8</f>
-        <v>1604396652</v>
+        <v>1604398374</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H9" ca="1" si="1">G8/86400+DATE(1970,1,1)</f>
-        <v>44138.405694444446</v>
+        <v>44138.425625000003</v>
       </c>
       <c r="I8" s="4">
         <f ca="1">G8*B8</f>
-        <v>3208793304000</v>
+        <v>3208796748000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -756,15 +768,15 @@
       </c>
       <c r="G9" s="4">
         <f ca="1">NOW+D9</f>
-        <v>1604483052</v>
+        <v>1604484774</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44139.405694444446</v>
+        <v>44139.425625000003</v>
       </c>
       <c r="I9" s="4">
         <f ca="1">G9*B9</f>
-        <v>4813449156000</v>
+        <v>4813454322000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -792,7 +804,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8">
         <f ca="1">SUM(I7:I9)</f>
-        <v>9626552712000</v>
+        <v>9626563044000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -801,7 +813,7 @@
       </c>
       <c r="I12">
         <f ca="1">I10/TOTALSUPPLY</f>
-        <v>1604425452</v>
+        <v>1604427174</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -819,435 +831,970 @@
       </c>
       <c r="I14" s="3">
         <f ca="1">I12/86400+DATE(1970,1,1)</f>
-        <v>44138.739027777774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+        <v>44138.758958333332</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="C22" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
+      <c r="G22">
+        <f t="shared" ref="G22:G51" si="2">F22/SECONDS_PER_DAY</f>
+        <v>365</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" ref="H22:H41" si="3">E22*(1+D22/(SECONDS_PER_YEAR/F22))^(C22/F22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>182.5</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="F22">
-        <f>E22/SECONDS_PER_DAY</f>
+      <c r="G27">
+        <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="G22" s="22">
-        <f>D22*(1+C22/(SECONDS_PER_YEAR/E22))^(B22/E22)</f>
-        <v>110.00000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
+      <c r="H27" s="22">
+        <f t="shared" si="3"/>
+        <v>100.01305704137174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>182.5</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="3"/>
+        <v>100.01336806171135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
+      <c r="H29" s="22">
+        <f t="shared" si="3"/>
+        <v>100.01353111405231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="3"/>
+        <v>100.01364279818567</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="3"/>
+        <v>100.01369769200315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="C23" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" ref="H32:H36" si="4">E32*(1+D32/(SECONDS_PER_YEAR/F32))^(C32/F32)</f>
+        <v>100.02611578760678</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
         <f>SECONDS_PER_YEAR/2</f>
         <v>15768000</v>
       </c>
-      <c r="F23">
-        <f>E23/SECONDS_PER_DAY</f>
+      <c r="G33">
+        <f t="shared" si="2"/>
         <v>182.5</v>
       </c>
-      <c r="G23" s="22">
-        <f>D23*(1+C23/(SECONDS_PER_YEAR/E23))^(B23/E23)</f>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
+      <c r="H33" s="22">
+        <f t="shared" si="4"/>
+        <v>100.02673791047343</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="4"/>
+        <v>100.02706405901512</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H35" s="22">
+        <f t="shared" si="4"/>
+        <v>100.02728745763076</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="4"/>
+        <v>100.02739726027397</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="C24" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="3"/>
+        <v>100.7601334196257</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>182.5</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" si="3"/>
+        <v>100.77830895901336</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
         <f>SECONDS_PER_YEAR/4</f>
         <v>7884000</v>
       </c>
-      <c r="F24">
-        <f>E24/SECONDS_PER_DAY</f>
+      <c r="G39">
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
-      <c r="G24" s="22">
-        <f>D24*(1+C24/(SECONDS_PER_YEAR/E24))^(B24/E24)</f>
-        <v>110.38128906249997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
+      <c r="H39" s="22">
+        <f t="shared" si="3"/>
+        <v>100.78783876863824</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="3"/>
+        <v>100.79436680651366</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" si="3"/>
+        <v>100.79757555174385</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="C25" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25">
+      <c r="G42">
+        <f>F42/SECONDS_PER_DAY</f>
+        <v>365</v>
+      </c>
+      <c r="H42" s="22">
+        <f>E42*(1+D42/(SECONDS_PER_YEAR/F42))^(C42/F42)</f>
+        <v>104.88088481701516</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G43">
+        <f>F43/SECONDS_PER_DAY</f>
+        <v>182.5</v>
+      </c>
+      <c r="H43" s="22">
+        <f>E43*(1+D43/(SECONDS_PER_YEAR/F43))^(C43/F43)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G44">
+        <f>F44/SECONDS_PER_DAY</f>
+        <v>91.25</v>
+      </c>
+      <c r="H44" s="22">
+        <f>E44*(1+D44/(SECONDS_PER_YEAR/F44))^(C44/F44)</f>
+        <v>105.06249999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
         <f>SECONDS_PER_YEAR/12</f>
         <v>2628000</v>
       </c>
-      <c r="F25">
-        <f>E25/SECONDS_PER_DAY</f>
+      <c r="G45">
+        <f>F45/SECONDS_PER_DAY</f>
         <v>30.416666666666668</v>
       </c>
-      <c r="G25" s="22">
-        <f>D25*(1+C25/(SECONDS_PER_YEAR/E25))^(B25/E25)</f>
-        <v>110.47130674412968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
+      <c r="H45" s="22">
+        <f>E45*(1+D45/(SECONDS_PER_YEAR/F45))^(C45/F45)</f>
+        <v>105.10533133201649</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G46">
+        <f>F46/SECONDS_PER_DAY</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="22">
+        <f>E46*(1+D46/(SECONDS_PER_YEAR/F46))^(C46/F46)</f>
+        <v>105.12638972285848</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="C26" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" ref="H47:H51" si="5">E47*(1+D47/(SECONDS_PER_YEAR/F47))^(C47/F47)</f>
+        <v>109.85647563529261</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>182.5</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" si="5"/>
+        <v>110.10272542400305</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
+      <c r="H49" s="22">
+        <f t="shared" si="5"/>
+        <v>110.23204197525232</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H50" s="22">
+        <f t="shared" si="5"/>
+        <v>110.3207059967898</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
         <f>SECONDS_PER_YEAR/365</f>
         <v>86400</v>
       </c>
-      <c r="F26">
-        <f>E26/SECONDS_PER_DAY</f>
+      <c r="G51">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G26" s="22">
-        <f>D26*(1+C26/(SECONDS_PER_YEAR/E26))^(B26/E26)</f>
-        <v>110.51557816162271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
+      <c r="H51" s="22">
+        <f t="shared" si="5"/>
+        <v>110.3643113102859</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G56" si="6">F52/SECONDS_PER_DAY</f>
+        <v>365</v>
+      </c>
+      <c r="H52" s="22">
+        <f t="shared" ref="H52:H56" si="7">E52*(1+D52/(SECONDS_PER_YEAR/F52))^(C52/F52)</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
         <f>SECONDS_PER_YEAR/2</f>
         <v>15768000</v>
       </c>
-      <c r="C27" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27">
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>182.5</v>
+      </c>
+      <c r="H53" s="22">
+        <f t="shared" si="7"/>
+        <v>110.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="F27">
-        <f>E27/SECONDS_PER_DAY</f>
-        <v>365</v>
-      </c>
-      <c r="G27" s="22">
-        <f>D27*(1+C27/(SECONDS_PER_YEAR/E27))^(B27/E27)</f>
-        <v>104.88088481701516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
-      <c r="E28">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="F28">
-        <f>E28/SECONDS_PER_DAY</f>
-        <v>182.5</v>
-      </c>
-      <c r="G28" s="22">
-        <f>D28*(1+C28/(SECONDS_PER_YEAR/E28))^(B28/E28)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
+      <c r="D54" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
         <f>SECONDS_PER_YEAR/4</f>
         <v>7884000</v>
       </c>
-      <c r="F29">
-        <f>E29/SECONDS_PER_DAY</f>
+      <c r="G54">
+        <f t="shared" si="6"/>
         <v>91.25</v>
       </c>
-      <c r="G29" s="22">
-        <f>D29*(1+C29/(SECONDS_PER_YEAR/E29))^(B29/E29)</f>
-        <v>105.06249999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
+      <c r="H54" s="22">
+        <f t="shared" si="7"/>
+        <v>110.38128906249997</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
         <f>SECONDS_PER_YEAR/12</f>
         <v>2628000</v>
       </c>
-      <c r="F30">
-        <f>E30/SECONDS_PER_DAY</f>
+      <c r="G55">
+        <f t="shared" si="6"/>
         <v>30.416666666666668</v>
       </c>
-      <c r="G30" s="22">
-        <f>D30*(1+C30/(SECONDS_PER_YEAR/E30))^(B30/E30)</f>
-        <v>105.10533133201649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="C31" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31">
+      <c r="H55" s="22">
+        <f t="shared" si="7"/>
+        <v>110.47130674412968</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
         <f>SECONDS_PER_YEAR/365</f>
         <v>86400</v>
       </c>
-      <c r="F31">
-        <f>E31/SECONDS_PER_DAY</f>
+      <c r="G56">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G31" s="22">
-        <f>D31*(1+C31/(SECONDS_PER_YEAR/E31))^(B31/E31)</f>
-        <v>105.12638972285848</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D32">
-        <v>100</v>
-      </c>
-      <c r="E32">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="F32">
-        <f>E32/SECONDS_PER_DAY</f>
-        <v>365</v>
-      </c>
-      <c r="G32" s="22">
-        <f>D32*(1+C32/(SECONDS_PER_YEAR/E32))^(B32/E32)</f>
-        <v>100.7601334196257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="C33" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="F33">
-        <f>E33/SECONDS_PER_DAY</f>
-        <v>182.5</v>
-      </c>
-      <c r="G33" s="22">
-        <f>D33*(1+C33/(SECONDS_PER_YEAR/E33))^(B33/E33)</f>
-        <v>100.77830895901336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="C34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="F34">
-        <f>E34/SECONDS_PER_DAY</f>
-        <v>91.25</v>
-      </c>
-      <c r="G34" s="22">
-        <f>D34*(1+C34/(SECONDS_PER_YEAR/E34))^(B34/E34)</f>
-        <v>100.78783876863824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="C35" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="F35">
-        <f>E35/SECONDS_PER_DAY</f>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="G35" s="22">
-        <f>D35*(1+C35/(SECONDS_PER_YEAR/E35))^(B35/E35)</f>
-        <v>100.79436680651366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="C36" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36">
-        <f>SECONDS_PER_YEAR/365</f>
-        <v>86400</v>
-      </c>
-      <c r="F36">
-        <f>E36/SECONDS_PER_DAY</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="22">
-        <f>D36*(1+C36/(SECONDS_PER_YEAR/E36))^(B36/E36)</f>
-        <v>100.79757555174385</v>
+      <c r="H56" s="22">
+        <f t="shared" si="7"/>
+        <v>110.51557816162271</v>
       </c>
     </row>
   </sheetData>

--- a/calcs/VotesAndRewards.xlsx
+++ b/calcs/VotesAndRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28453D-9ADB-F547-9855-93893BF1D0DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE693C-DBFA-B246-9C93-6B12EBD6272D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="960" windowWidth="27300" windowHeight="16540" xr2:uid="{7B98E81D-F3CD-D249-8383-AB3D672FCBF1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>User1</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>1/2 day</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>100 years</t>
+  </si>
+  <si>
+    <t>1000 years</t>
   </si>
 </sst>
 </file>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A30253-9537-F644-AA53-33F854E839F9}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,7 +611,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,7 +621,7 @@
       </c>
       <c r="B1" s="3">
         <f ca="1">NOW()</f>
-        <v>44136.425628703706</v>
+        <v>44136.455918518521</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -621,7 +630,7 @@
       </c>
       <c r="B2" s="4">
         <f ca="1">ROUND((B1-DATE(1970,1,1))*86400,0)</f>
-        <v>1604225574</v>
+        <v>1604228191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -696,15 +705,15 @@
       </c>
       <c r="G7" s="4">
         <f ca="1">NOW+D7</f>
-        <v>1604311974</v>
+        <v>1604314591</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">G7/86400+DATE(1970,1,1)</f>
-        <v>44137.425625000003</v>
+        <v>44137.455914351856</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">G7*B7</f>
-        <v>1604311974000</v>
+        <v>1604314591000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -732,15 +741,15 @@
       </c>
       <c r="G8" s="4">
         <f ca="1">NOW+D8</f>
-        <v>1604398374</v>
+        <v>1604400991</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H9" ca="1" si="1">G8/86400+DATE(1970,1,1)</f>
-        <v>44138.425625000003</v>
+        <v>44138.455914351856</v>
       </c>
       <c r="I8" s="4">
         <f ca="1">G8*B8</f>
-        <v>3208796748000</v>
+        <v>3208801982000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -768,15 +777,15 @@
       </c>
       <c r="G9" s="4">
         <f ca="1">NOW+D9</f>
-        <v>1604484774</v>
+        <v>1604487391</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44139.425625000003</v>
+        <v>44139.455914351856</v>
       </c>
       <c r="I9" s="4">
         <f ca="1">G9*B9</f>
-        <v>4813454322000</v>
+        <v>4813462173000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -804,7 +813,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8">
         <f ca="1">SUM(I7:I9)</f>
-        <v>9626563044000</v>
+        <v>9626578746000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -813,7 +822,7 @@
       </c>
       <c r="I12">
         <f ca="1">I10/TOTALSUPPLY</f>
-        <v>1604427174</v>
+        <v>1604429791</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -831,7 +840,7 @@
       </c>
       <c r="I14" s="3">
         <f ca="1">I12/86400+DATE(1970,1,1)</f>
-        <v>44138.758958333332</v>
+        <v>44138.789247685185</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -1681,7 +1690,7 @@
         <v>31536000</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:G56" si="6">F52/SECONDS_PER_DAY</f>
+        <f t="shared" ref="G52:G71" si="6">F52/SECONDS_PER_DAY</f>
         <v>365</v>
       </c>
       <c r="H52" s="22">
@@ -1795,6 +1804,411 @@
       <c r="H56" s="22">
         <f t="shared" si="7"/>
         <v>110.51557816162271</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <f>SECONDS_PER_YEAR*10</f>
+        <v>315360000</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" ref="H57:H61" si="8">E57*(1+D57/(SECONDS_PER_YEAR/F57))^(C57/F57)</f>
+        <v>259.37424601000021</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <f>SECONDS_PER_YEAR*10</f>
+        <v>315360000</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>182.5</v>
+      </c>
+      <c r="H58" s="22">
+        <f t="shared" si="8"/>
+        <v>265.32977051444209</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <f>SECONDS_PER_YEAR*10</f>
+        <v>315360000</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>91.25</v>
+      </c>
+      <c r="H59" s="22">
+        <f t="shared" si="8"/>
+        <v>268.50638383899673</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60">
+        <f>SECONDS_PER_YEAR*10</f>
+        <v>315360000</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H60" s="22">
+        <f t="shared" si="8"/>
+        <v>270.70414908622411</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <f>SECONDS_PER_YEAR*10</f>
+        <v>315360000</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="22">
+        <f t="shared" si="8"/>
+        <v>271.79095545768331</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <f>SECONDS_PER_YEAR*100</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="H62" s="22">
+        <f t="shared" ref="H62:H66" si="9">E62*(1+D62/(SECONDS_PER_YEAR/F62))^(C62/F62)</f>
+        <v>1378061.2339822364</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63">
+        <f>SECONDS_PER_YEAR*100</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>182.5</v>
+      </c>
+      <c r="H63" s="22">
+        <f t="shared" si="9"/>
+        <v>1729258.0815160037</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64">
+        <f>SECONDS_PER_YEAR*100</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D64" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>91.25</v>
+      </c>
+      <c r="H64" s="22">
+        <f t="shared" si="9"/>
+        <v>1947808.0514961616</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <f>SECONDS_PER_YEAR*100</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D65" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H65" s="22">
+        <f t="shared" si="9"/>
+        <v>2113241.4600168322</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <f>SECONDS_PER_YEAR*100</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D66" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="22">
+        <f t="shared" si="9"/>
+        <v>2199631.8713507117</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67">
+        <f>SECONDS_PER_YEAR*1000</f>
+        <v>31536000000</v>
+      </c>
+      <c r="D67" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="H67" s="22">
+        <f t="shared" ref="H67:H71" si="10">E67*(1+D67/(SECONDS_PER_YEAR/F67))^(C67/F67)</f>
+        <v>2095915.5637813902</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68">
+        <f>SECONDS_PER_YEAR*1000</f>
+        <v>31536000000</v>
+      </c>
+      <c r="D68" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>182.5</v>
+      </c>
+      <c r="H68" s="22">
+        <f t="shared" si="10"/>
+        <v>2148441.4023281098</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <f>SECONDS_PER_YEAR*1000</f>
+        <v>31536000000</v>
+      </c>
+      <c r="D69" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>91.25</v>
+      </c>
+      <c r="H69" s="22">
+        <f t="shared" si="10"/>
+        <v>2175330.0983310048</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <f>SECONDS_PER_YEAR*1000</f>
+        <v>31536000000</v>
+      </c>
+      <c r="D70" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H70" s="22">
+        <f t="shared" si="10"/>
+        <v>2193493.0534173725</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <f>SECONDS_PER_YEAR*1000</f>
+        <v>31536000000</v>
+      </c>
+      <c r="D71" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <f>SECONDS_PER_YEAR/365</f>
+        <v>86400</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="22">
+        <f t="shared" si="10"/>
+        <v>2202344.8732570675</v>
       </c>
     </row>
   </sheetData>

--- a/calcs/VotesAndRewards.xlsx
+++ b/calcs/VotesAndRewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bok/Projects/Governance/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFE693C-DBFA-B246-9C93-6B12EBD6272D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8819868C-C0F2-2447-BF2A-1F3E131325A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="960" windowWidth="27300" windowHeight="16540" xr2:uid="{7B98E81D-F3CD-D249-8383-AB3D672FCBF1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>User1</t>
   </si>
@@ -119,9 +119,6 @@
     <t>1 year</t>
   </si>
   <si>
-    <t>1/2 year</t>
-  </si>
-  <si>
     <t>29 days</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>1000 years</t>
+  </si>
+  <si>
+    <t>6m</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -596,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A30253-9537-F644-AA53-33F854E839F9}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -611,29 +611,29 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="52.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3">
         <f ca="1">NOW()</f>
-        <v>44136.455918518521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44136.719501504631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
         <f ca="1">ROUND((B1-DATE(1970,1,1))*86400,0)</f>
-        <v>1604228191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1604250965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -642,7 +642,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -651,7 +651,7 @@
         <v>31536000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34">
       <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -705,18 +705,18 @@
       </c>
       <c r="G7" s="4">
         <f ca="1">NOW+D7</f>
-        <v>1604314591</v>
+        <v>1604337365</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">G7/86400+DATE(1970,1,1)</f>
-        <v>44137.455914351856</v>
+        <v>44137.719502314816</v>
       </c>
       <c r="I7" s="4">
         <f ca="1">G7*B7</f>
-        <v>1604314591000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1604337365000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -741,18 +741,18 @@
       </c>
       <c r="G8" s="4">
         <f ca="1">NOW+D8</f>
-        <v>1604400991</v>
+        <v>1604423765</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H9" ca="1" si="1">G8/86400+DATE(1970,1,1)</f>
-        <v>44138.455914351856</v>
+        <v>44138.719502314816</v>
       </c>
       <c r="I8" s="4">
         <f ca="1">G8*B8</f>
-        <v>3208801982000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3208847530000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -777,18 +777,18 @@
       </c>
       <c r="G9" s="4">
         <f ca="1">NOW+D9</f>
-        <v>1604487391</v>
+        <v>1604510165</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44139.455914351856</v>
+        <v>44139.719502314816</v>
       </c>
       <c r="I9" s="4">
         <f ca="1">G9*B9</f>
-        <v>4813462173000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4813530495000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -813,19 +813,19 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8">
         <f ca="1">SUM(I7:I9)</f>
-        <v>9626578746000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9626715390000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I12">
         <f ca="1">I10/TOTALSUPPLY</f>
-        <v>1604429791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1604452565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
@@ -834,16 +834,16 @@
         <v>201600</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3">
         <f ca="1">I12/86400+DATE(1970,1,1)</f>
-        <v>44138.789247685185</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+        <v>44139.052835648152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
@@ -866,9 +866,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -884,17 +884,17 @@
         <v>31536000</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G51" si="2">F22/SECONDS_PER_DAY</f>
+        <f t="shared" ref="G22:G57" si="2">F22/SECONDS_PER_DAY</f>
         <v>365</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" ref="H22:H41" si="3">E22*(1+D22/(SECONDS_PER_YEAR/F22))^(C22/F22)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H22:H45" si="3">E22*(1+D22/(SECONDS_PER_YEAR/F22))^(C22/F22)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -918,9 +918,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -944,9 +944,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -970,9 +970,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -984,48 +984,47 @@
         <v>100</v>
       </c>
       <c r="F26">
-        <f>SECONDS_PER_YEAR/365</f>
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" ref="H26" si="4">E26*(1+D26/(SECONDS_PER_YEAR/F26))^(C26/F26)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <f>SECONDS_PER_DAY</f>
         <v>86400</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="H26" s="22">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <f>SECONDS_PER_DAY/2</f>
-        <v>43200</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>365</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="3"/>
-        <v>100.01305704137174</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <f>SECONDS_PER_DAY/2</f>
@@ -1038,21 +1037,21 @@
         <v>100</v>
       </c>
       <c r="F28">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>182.5</v>
+        <v>365</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
-        <v>100.01336806171135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100.01305704137174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <f>SECONDS_PER_DAY/2</f>
@@ -1065,21 +1064,21 @@
         <v>100</v>
       </c>
       <c r="F29">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>91.25</v>
+        <v>182.5</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
-        <v>100.01353111405231</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100.01336806171135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <f>SECONDS_PER_DAY/2</f>
@@ -1092,21 +1091,21 @@
         <v>100</v>
       </c>
       <c r="F30">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
+        <v>91.25</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
-        <v>100.01364279818567</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100.01353111405231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <f>SECONDS_PER_DAY/2</f>
@@ -1119,75 +1118,75 @@
         <v>100</v>
       </c>
       <c r="F31">
-        <f>SECONDS_PER_YEAR/365</f>
-        <v>86400</v>
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>30.416666666666668</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
-        <v>100.01369769200315</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100.01364279818567</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" ref="H32" si="5">E32*(1+D32/(SECONDS_PER_YEAR/F32))^(C32/F32)</f>
+        <v>100.0136864477434</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f>SECONDS_PER_DAY/2</f>
+        <v>43200</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
         <f>SECONDS_PER_DAY</f>
         <v>86400</v>
       </c>
-      <c r="D32" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-      <c r="F32">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" ref="H32:H36" si="4">E32*(1+D32/(SECONDS_PER_YEAR/F32))^(C32/F32)</f>
-        <v>100.02611578760678</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <f>SECONDS_PER_DAY</f>
-        <v>86400</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="F33">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>182.5</v>
+        <v>1</v>
       </c>
       <c r="H33" s="22">
-        <f t="shared" si="4"/>
-        <v>100.02673791047343</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>100.01369769200315</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <f>SECONDS_PER_DAY</f>
@@ -1200,21 +1199,21 @@
         <v>100</v>
       </c>
       <c r="F34">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>91.25</v>
+        <v>365</v>
       </c>
       <c r="H34" s="22">
-        <f t="shared" si="4"/>
-        <v>100.02706405901512</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H34:H39" si="6">E34*(1+D34/(SECONDS_PER_YEAR/F34))^(C34/F34)</f>
+        <v>100.02611578760678</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <f>SECONDS_PER_DAY</f>
@@ -1227,21 +1226,21 @@
         <v>100</v>
       </c>
       <c r="F35">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
+        <v>182.5</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="4"/>
-        <v>100.02728745763076</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>100.02673791047343</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <f>SECONDS_PER_DAY</f>
@@ -1254,102 +1253,102 @@
         <v>100</v>
       </c>
       <c r="F36">
-        <f>SECONDS_PER_YEAR/365</f>
-        <v>86400</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="22">
-        <f t="shared" si="4"/>
-        <v>100.02739726027397</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="F37">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H37" s="22">
-        <f t="shared" si="3"/>
-        <v>100.7601334196257</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H38" s="22">
-        <f t="shared" si="3"/>
-        <v>100.77830895901336</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39">
-        <f>SECONDS_PER_DAY*29</f>
-        <v>2505600</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39">
         <f>SECONDS_PER_YEAR/4</f>
         <v>7884000</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="6"/>
+        <v>100.02706405901512</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="6"/>
+        <v>100.02728745763076</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" ref="H38" si="7">E38*(1+D38/(SECONDS_PER_YEAR/F38))^(C38/F38)</f>
+        <v>100.02737476867534</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>91.25</v>
+        <v>1</v>
       </c>
       <c r="H39" s="22">
-        <f t="shared" si="3"/>
-        <v>100.78783876863824</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>100.02739726027397</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <f>SECONDS_PER_DAY*29</f>
@@ -1362,21 +1361,21 @@
         <v>100</v>
       </c>
       <c r="F40">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
+        <v>365</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" si="3"/>
-        <v>100.79436680651366</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100.7601334196257</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <f>SECONDS_PER_DAY*29</f>
@@ -1389,25 +1388,25 @@
         <v>100</v>
       </c>
       <c r="F41">
-        <f>SECONDS_PER_YEAR/365</f>
-        <v>86400</v>
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>182.5</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="3"/>
-        <v>100.79757555174385</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+        <v>100.77830895901336</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C42">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
       </c>
       <c r="D42" s="21">
         <v>0.1</v>
@@ -1416,25 +1415,25 @@
         <v>100</v>
       </c>
       <c r="F42">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
       </c>
       <c r="G42">
-        <f>F42/SECONDS_PER_DAY</f>
-        <v>365</v>
+        <f t="shared" si="2"/>
+        <v>91.25</v>
       </c>
       <c r="H42" s="22">
-        <f>E42*(1+D42/(SECONDS_PER_YEAR/F42))^(C42/F42)</f>
-        <v>104.88088481701516</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>100.78783876863824</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C43">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
       </c>
       <c r="D43" s="21">
         <v>0.1</v>
@@ -1443,25 +1442,25 @@
         <v>100</v>
       </c>
       <c r="F43">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
       </c>
       <c r="G43">
-        <f>F43/SECONDS_PER_DAY</f>
-        <v>182.5</v>
+        <f t="shared" si="2"/>
+        <v>30.416666666666668</v>
       </c>
       <c r="H43" s="22">
-        <f>E43*(1+D43/(SECONDS_PER_YEAR/F43))^(C43/F43)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>100.79436680651366</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C44">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
       </c>
       <c r="D44" s="21">
         <v>0.1</v>
@@ -1470,25 +1469,25 @@
         <v>100</v>
       </c>
       <c r="F44">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
       </c>
       <c r="G44">
-        <f>F44/SECONDS_PER_DAY</f>
-        <v>91.25</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="H44" s="22">
-        <f>E44*(1+D44/(SECONDS_PER_YEAR/F44))^(C44/F44)</f>
-        <v>105.06249999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H44" si="8">E44*(1+D44/(SECONDS_PER_YEAR/F44))^(C44/F44)</f>
+        <v>100.79691827529183</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C45">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
+        <f>SECONDS_PER_DAY*29</f>
+        <v>2505600</v>
       </c>
       <c r="D45" s="21">
         <v>0.1</v>
@@ -1497,21 +1496,21 @@
         <v>100</v>
       </c>
       <c r="F45">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
       </c>
       <c r="G45">
-        <f>F45/SECONDS_PER_DAY</f>
-        <v>30.416666666666668</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H45" s="22">
-        <f>E45*(1+D45/(SECONDS_PER_YEAR/F45))^(C45/F45)</f>
-        <v>105.10533133201649</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>100.79757555174385</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <f>SECONDS_PER_YEAR/2</f>
@@ -1524,160 +1523,160 @@
         <v>100</v>
       </c>
       <c r="F46">
-        <f>SECONDS_PER_YEAR/365</f>
-        <v>86400</v>
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
       </c>
       <c r="G46">
         <f>F46/SECONDS_PER_DAY</f>
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="H46" s="22">
         <f>E46*(1+D46/(SECONDS_PER_YEAR/F46))^(C46/F46)</f>
+        <v>104.88088481701516</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G47">
+        <f>F47/SECONDS_PER_DAY</f>
+        <v>182.5</v>
+      </c>
+      <c r="H47" s="22">
+        <f>E47*(1+D47/(SECONDS_PER_YEAR/F47))^(C47/F47)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G48">
+        <f>F48/SECONDS_PER_DAY</f>
+        <v>91.25</v>
+      </c>
+      <c r="H48" s="22">
+        <f>E48*(1+D48/(SECONDS_PER_YEAR/F48))^(C48/F48)</f>
+        <v>105.06249999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G49">
+        <f>F49/SECONDS_PER_DAY</f>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H49" s="22">
+        <f>E49*(1+D49/(SECONDS_PER_YEAR/F49))^(C49/F49)</f>
+        <v>105.10533133201649</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G50">
+        <f>F50/SECONDS_PER_DAY</f>
+        <v>7</v>
+      </c>
+      <c r="H50" s="22">
+        <f>E50*(1+D50/(SECONDS_PER_YEAR/F50))^(C50/F50)</f>
+        <v>105.12207585226538</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="G51">
+        <f>F51/SECONDS_PER_DAY</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="22">
+        <f>E51*(1+D51/(SECONDS_PER_YEAR/F51))^(C51/F51)</f>
         <v>105.12638972285848</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47">
+    <row r="52" spans="2:8">
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
         <f>SECONDS_PER_DAY*360</f>
         <v>31104000</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="F47">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H47" s="22">
-        <f t="shared" ref="H47:H51" si="5">E47*(1+D47/(SECONDS_PER_YEAR/F47))^(C47/F47)</f>
-        <v>109.85647563529261</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48">
-        <f>SECONDS_PER_DAY*360</f>
-        <v>31104000</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E48">
-        <v>100</v>
-      </c>
-      <c r="F48">
-        <f>SECONDS_PER_YEAR/2</f>
-        <v>15768000</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="H48" s="22">
-        <f t="shared" si="5"/>
-        <v>110.10272542400305</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49">
-        <f>SECONDS_PER_DAY*360</f>
-        <v>31104000</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-      <c r="F49">
-        <f>SECONDS_PER_YEAR/4</f>
-        <v>7884000</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>91.25</v>
-      </c>
-      <c r="H49" s="22">
-        <f t="shared" si="5"/>
-        <v>110.23204197525232</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50">
-        <f>SECONDS_PER_DAY*360</f>
-        <v>31104000</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50">
-        <f>SECONDS_PER_YEAR/12</f>
-        <v>2628000</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>30.416666666666668</v>
-      </c>
-      <c r="H50" s="22">
-        <f t="shared" si="5"/>
-        <v>110.3207059967898</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51">
-        <f>SECONDS_PER_DAY*360</f>
-        <v>31104000</v>
-      </c>
-      <c r="D51" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-      <c r="F51">
-        <f>SECONDS_PER_YEAR/365</f>
-        <v>86400</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="22">
-        <f t="shared" si="5"/>
-        <v>110.3643113102859</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
       </c>
       <c r="D52" s="21">
         <v>0.1</v>
@@ -1690,21 +1689,21 @@
         <v>31536000</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:G71" si="6">F52/SECONDS_PER_DAY</f>
+        <f t="shared" si="2"/>
         <v>365</v>
       </c>
       <c r="H52" s="22">
-        <f t="shared" ref="H52:H56" si="7">E52*(1+D52/(SECONDS_PER_YEAR/F52))^(C52/F52)</f>
-        <v>110.00000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H52:H57" si="9">E52*(1+D52/(SECONDS_PER_YEAR/F52))^(C52/F52)</f>
+        <v>109.85647563529261</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C53">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
       </c>
       <c r="D53" s="21">
         <v>0.1</v>
@@ -1717,21 +1716,21 @@
         <v>15768000</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>182.5</v>
       </c>
       <c r="H53" s="22">
-        <f t="shared" si="7"/>
-        <v>110.25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>110.10272542400305</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
       </c>
       <c r="D54" s="21">
         <v>0.1</v>
@@ -1744,21 +1743,21 @@
         <v>7884000</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>91.25</v>
       </c>
       <c r="H54" s="22">
-        <f t="shared" si="7"/>
-        <v>110.38128906249997</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>110.23204197525232</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C55">
-        <f>SECONDS_PER_YEAR</f>
-        <v>31536000</v>
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
       </c>
       <c r="D55" s="21">
         <v>0.1</v>
@@ -1771,443 +1770,713 @@
         <v>2628000</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30.416666666666668</v>
       </c>
       <c r="H55" s="22">
-        <f t="shared" si="7"/>
-        <v>110.47130674412968</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>110.3207059967898</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H56" s="22">
+        <f t="shared" ref="H56" si="10">E56*(1+D56/(SECONDS_PER_YEAR/F56))^(C56/F56)</f>
+        <v>110.35537794719572</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <f>SECONDS_PER_DAY*360</f>
+        <v>31104000</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <f>SECONDS_PER_DAY</f>
+        <v>86400</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" si="9"/>
+        <v>110.3643113102859</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="D56" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <f>SECONDS_PER_YEAR/365</f>
+      <c r="D58" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:G81" si="11">F58/SECONDS_PER_DAY</f>
+        <v>365</v>
+      </c>
+      <c r="H58" s="22">
+        <f t="shared" ref="H58:H63" si="12">E58*(1+D58/(SECONDS_PER_YEAR/F58))^(C58/F58)</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <f>SECONDS_PER_YEAR/2</f>
+        <v>15768000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="11"/>
+        <v>182.5</v>
+      </c>
+      <c r="H59" s="22">
+        <f t="shared" si="12"/>
+        <v>110.25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <f>SECONDS_PER_YEAR/4</f>
+        <v>7884000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="11"/>
+        <v>91.25</v>
+      </c>
+      <c r="H60" s="22">
+        <f t="shared" si="12"/>
+        <v>110.38128906249997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <f>SECONDS_PER_YEAR/12</f>
+        <v>2628000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="11"/>
+        <v>30.416666666666668</v>
+      </c>
+      <c r="H61" s="22">
+        <f t="shared" si="12"/>
+        <v>110.47130674412968</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H62" s="22">
+        <f t="shared" ref="H62" si="13">E62*(1+D62/(SECONDS_PER_YEAR/F62))^(C62/F62)</f>
+        <v>110.50650831489438</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <f>SECONDS_PER_YEAR</f>
+        <v>31536000</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <f>SECONDS_PER_DAY</f>
         <v>86400</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="6"/>
+      <c r="G63">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H56" s="22">
-        <f t="shared" si="7"/>
+      <c r="H63" s="22">
+        <f t="shared" si="12"/>
         <v>110.51557816162271</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57">
+    <row r="64" spans="2:8">
+      <c r="B64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
         <f>SECONDS_PER_YEAR*10</f>
         <v>315360000</v>
       </c>
-      <c r="D57" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57">
+      <c r="D64" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="6"/>
+      <c r="G64">
+        <f t="shared" si="11"/>
         <v>365</v>
       </c>
-      <c r="H57" s="22">
-        <f t="shared" ref="H57:H61" si="8">E57*(1+D57/(SECONDS_PER_YEAR/F57))^(C57/F57)</f>
+      <c r="H64" s="22">
+        <f t="shared" ref="H64:H69" si="14">E64*(1+D64/(SECONDS_PER_YEAR/F64))^(C64/F64)</f>
         <v>259.37424601000021</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58">
+    <row r="65" spans="2:8">
+      <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
         <f>SECONDS_PER_YEAR*10</f>
         <v>315360000</v>
       </c>
-      <c r="D58" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E58">
-        <v>100</v>
-      </c>
-      <c r="F58">
+      <c r="D65" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
         <f>SECONDS_PER_YEAR/2</f>
         <v>15768000</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="6"/>
+      <c r="G65">
+        <f t="shared" si="11"/>
         <v>182.5</v>
       </c>
-      <c r="H58" s="22">
-        <f t="shared" si="8"/>
+      <c r="H65" s="22">
+        <f t="shared" si="14"/>
         <v>265.32977051444209</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59">
+    <row r="66" spans="2:8">
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
         <f>SECONDS_PER_YEAR*10</f>
         <v>315360000</v>
       </c>
-      <c r="D59" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59">
+      <c r="D66" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
         <f>SECONDS_PER_YEAR/4</f>
         <v>7884000</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="6"/>
+      <c r="G66">
+        <f t="shared" si="11"/>
         <v>91.25</v>
       </c>
-      <c r="H59" s="22">
-        <f t="shared" si="8"/>
+      <c r="H66" s="22">
+        <f t="shared" si="14"/>
         <v>268.50638383899673</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60">
+    <row r="67" spans="2:8">
+      <c r="B67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67">
         <f>SECONDS_PER_YEAR*10</f>
         <v>315360000</v>
       </c>
-      <c r="D60" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E60">
-        <v>100</v>
-      </c>
-      <c r="F60">
+      <c r="D67" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
         <f>SECONDS_PER_YEAR/12</f>
         <v>2628000</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="6"/>
+      <c r="G67">
+        <f t="shared" si="11"/>
         <v>30.416666666666668</v>
       </c>
-      <c r="H60" s="22">
-        <f t="shared" si="8"/>
+      <c r="H67" s="22">
+        <f t="shared" si="14"/>
         <v>270.70414908622411</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61">
+    <row r="68" spans="2:8">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
         <f>SECONDS_PER_YEAR*10</f>
         <v>315360000</v>
       </c>
-      <c r="D61" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E61">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <f>SECONDS_PER_YEAR/365</f>
+      <c r="D68" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H68" s="22">
+        <f t="shared" ref="H68" si="15">E68*(1+D68/(SECONDS_PER_YEAR/F68))^(C68/F68)</f>
+        <v>271.56798307986793</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <f>SECONDS_PER_YEAR*10</f>
+        <v>315360000</v>
+      </c>
+      <c r="D69" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <f>SECONDS_PER_DAY</f>
         <v>86400</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="6"/>
+      <c r="G69">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H61" s="22">
-        <f t="shared" si="8"/>
+      <c r="H69" s="22">
+        <f t="shared" si="14"/>
         <v>271.79095545768331</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62">
+    <row r="70" spans="2:8">
+      <c r="B70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70">
         <f>SECONDS_PER_YEAR*100</f>
         <v>3153600000</v>
       </c>
-      <c r="D62" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62">
+      <c r="D70" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="6"/>
+      <c r="G70">
+        <f t="shared" si="11"/>
         <v>365</v>
       </c>
-      <c r="H62" s="22">
-        <f t="shared" ref="H62:H66" si="9">E62*(1+D62/(SECONDS_PER_YEAR/F62))^(C62/F62)</f>
+      <c r="H70" s="22">
+        <f t="shared" ref="H70:H75" si="16">E70*(1+D70/(SECONDS_PER_YEAR/F70))^(C70/F70)</f>
         <v>1378061.2339822364</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63">
+    <row r="71" spans="2:8">
+      <c r="B71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71">
         <f>SECONDS_PER_YEAR*100</f>
         <v>3153600000</v>
       </c>
-      <c r="D63" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E63">
-        <v>100</v>
-      </c>
-      <c r="F63">
+      <c r="D71" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
         <f>SECONDS_PER_YEAR/2</f>
         <v>15768000</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="6"/>
+      <c r="G71">
+        <f t="shared" si="11"/>
         <v>182.5</v>
       </c>
-      <c r="H63" s="22">
-        <f t="shared" si="9"/>
+      <c r="H71" s="22">
+        <f t="shared" si="16"/>
         <v>1729258.0815160037</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64">
+    <row r="72" spans="2:8">
+      <c r="B72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72">
         <f>SECONDS_PER_YEAR*100</f>
         <v>3153600000</v>
       </c>
-      <c r="D64" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E64">
-        <v>100</v>
-      </c>
-      <c r="F64">
+      <c r="D72" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
         <f>SECONDS_PER_YEAR/4</f>
         <v>7884000</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="6"/>
+      <c r="G72">
+        <f t="shared" si="11"/>
         <v>91.25</v>
       </c>
-      <c r="H64" s="22">
-        <f t="shared" si="9"/>
+      <c r="H72" s="22">
+        <f t="shared" si="16"/>
         <v>1947808.0514961616</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65">
+    <row r="73" spans="2:8">
+      <c r="B73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73">
         <f>SECONDS_PER_YEAR*100</f>
         <v>3153600000</v>
       </c>
-      <c r="D65" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E65">
-        <v>100</v>
-      </c>
-      <c r="F65">
+      <c r="D73" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
         <f>SECONDS_PER_YEAR/12</f>
         <v>2628000</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="6"/>
+      <c r="G73">
+        <f t="shared" si="11"/>
         <v>30.416666666666668</v>
       </c>
-      <c r="H65" s="22">
-        <f t="shared" si="9"/>
+      <c r="H73" s="22">
+        <f t="shared" si="16"/>
         <v>2113241.4600168322</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66">
+    <row r="74" spans="2:8">
+      <c r="B74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74">
         <f>SECONDS_PER_YEAR*100</f>
         <v>3153600000</v>
       </c>
-      <c r="D66" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E66">
-        <v>100</v>
-      </c>
-      <c r="F66">
-        <f>SECONDS_PER_YEAR/365</f>
+      <c r="D74" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H74" s="22">
+        <f t="shared" ref="H74" si="17">E74*(1+D74/(SECONDS_PER_YEAR/F74))^(C74/F74)</f>
+        <v>2181652.9627617672</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <f>SECONDS_PER_YEAR*100</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D75" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <f>SECONDS_PER_DAY</f>
         <v>86400</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="6"/>
+      <c r="G75">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H66" s="22">
-        <f t="shared" si="9"/>
+      <c r="H75" s="22">
+        <f t="shared" si="16"/>
         <v>2199631.8713507117</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67">
+    <row r="76" spans="2:8">
+      <c r="B76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76">
         <f>SECONDS_PER_YEAR*1000</f>
         <v>31536000000</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D76" s="21">
         <v>0.01</v>
       </c>
-      <c r="E67">
-        <v>100</v>
-      </c>
-      <c r="F67">
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
         <f>SECONDS_PER_YEAR</f>
         <v>31536000</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="6"/>
+      <c r="G76">
+        <f t="shared" si="11"/>
         <v>365</v>
       </c>
-      <c r="H67" s="22">
-        <f t="shared" ref="H67:H71" si="10">E67*(1+D67/(SECONDS_PER_YEAR/F67))^(C67/F67)</f>
+      <c r="H76" s="22">
+        <f t="shared" ref="H76:H80" si="18">E76*(1+D76/(SECONDS_PER_YEAR/F76))^(C76/F76)</f>
         <v>2095915.5637813902</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68">
+    <row r="77" spans="2:8">
+      <c r="B77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77">
         <f>SECONDS_PER_YEAR*1000</f>
         <v>31536000000</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D77" s="21">
         <v>0.01</v>
       </c>
-      <c r="E68">
-        <v>100</v>
-      </c>
-      <c r="F68">
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
         <f>SECONDS_PER_YEAR/2</f>
         <v>15768000</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="6"/>
+      <c r="G77">
+        <f t="shared" si="11"/>
         <v>182.5</v>
       </c>
-      <c r="H68" s="22">
-        <f t="shared" si="10"/>
+      <c r="H77" s="22">
+        <f t="shared" si="18"/>
         <v>2148441.4023281098</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69">
+    <row r="78" spans="2:8">
+      <c r="B78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78">
         <f>SECONDS_PER_YEAR*1000</f>
         <v>31536000000</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D78" s="21">
         <v>0.01</v>
       </c>
-      <c r="E69">
-        <v>100</v>
-      </c>
-      <c r="F69">
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
         <f>SECONDS_PER_YEAR/4</f>
         <v>7884000</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="6"/>
+      <c r="G78">
+        <f t="shared" si="11"/>
         <v>91.25</v>
       </c>
-      <c r="H69" s="22">
-        <f t="shared" si="10"/>
+      <c r="H78" s="22">
+        <f t="shared" si="18"/>
         <v>2175330.0983310048</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70">
+    <row r="79" spans="2:8">
+      <c r="B79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79">
         <f>SECONDS_PER_YEAR*1000</f>
         <v>31536000000</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D79" s="21">
         <v>0.01</v>
       </c>
-      <c r="E70">
-        <v>100</v>
-      </c>
-      <c r="F70">
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
         <f>SECONDS_PER_YEAR/12</f>
         <v>2628000</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="6"/>
+      <c r="G79">
+        <f t="shared" si="11"/>
         <v>30.416666666666668</v>
       </c>
-      <c r="H70" s="22">
-        <f t="shared" si="10"/>
+      <c r="H79" s="22">
+        <f t="shared" si="18"/>
         <v>2193493.0534173725</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71">
+    <row r="80" spans="2:8">
+      <c r="B80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80">
         <f>SECONDS_PER_YEAR*1000</f>
         <v>31536000000</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D80" s="21">
         <v>0.01</v>
       </c>
-      <c r="E71">
-        <v>100</v>
-      </c>
-      <c r="F71">
-        <f>SECONDS_PER_YEAR/365</f>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <f>SECONDS_PER_DAY*7</f>
+        <v>604800</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H80" s="22">
+        <f t="shared" si="18"/>
+        <v>2200535.734713464</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <f>SECONDS_PER_YEAR*1000</f>
+        <v>31536000000</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <f>SECONDS_PER_DAY</f>
         <v>86400</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="6"/>
+      <c r="G81">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="H71" s="22">
-        <f t="shared" si="10"/>
+      <c r="H81" s="22">
+        <f t="shared" ref="H81" si="19">E81*(1+D81/(SECONDS_PER_YEAR/F81))^(C81/F81)</f>
         <v>2202344.8732570675</v>
       </c>
     </row>
